--- a/Mifos Automation Excels/Client/2475-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-PERIODIC-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2475-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-PERIODIC-Newcreateloan1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -212,7 +212,7 @@
     <t>principal1</t>
   </si>
   <si>
-    <t>2475-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-PERIODIC</t>
+    <t>2475-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-PERIODIC-1st</t>
   </si>
 </sst>
 </file>
@@ -315,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -344,7 +344,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -652,7 +651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -722,7 +721,7 @@
       <c r="A8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>5000</v>
       </c>
     </row>
@@ -746,7 +745,7 @@
       <c r="A11" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>5000</v>
       </c>
     </row>
@@ -1372,7 +1371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -1383,50 +1382,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>2000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>42050</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>53</v>
       </c>
     </row>
